--- a/ESTUDO/PhpSpreadsheet/testes/rowandcolumn.xlsx
+++ b/ESTUDO/PhpSpreadsheet/testes/rowandcolumn.xlsx
@@ -407,7 +407,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>44797.58025463</v>
+        <v>44798.724953704</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
